--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:37:23+00:00</t>
+    <t>2024-02-19T16:33:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:33:29+00:00</t>
+    <t>2024-02-20T13:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T13:29:05+00:00</t>
+    <t>2024-02-20T13:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T13:37:05+00:00</t>
+    <t>2024-02-20T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T14:01:19+00:00</t>
+    <t>2024-02-21T08:58:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
+++ b/narratif-scenario-retour-platine/ig/StructureDefinition-ror-healthcareservice-psychiatric-sector.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T08:58:05+00:00</t>
+    <t>2024-02-21T14:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
